--- a/DormManagement/Server/download/BedTemplate.xlsx
+++ b/DormManagement/Server/download/BedTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -408,7 +408,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -452,18 +452,21 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+  <dataValidations count="5">
+    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="学号应为十位数字" sqref="G1:G1048576">
+      <formula1>10</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="楼号仅能输入5或13或14" sqref="B1:B1048576">
       <formula1>"5,13,14"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="性别仅能输入“男”或“女”" sqref="E1:E1048576">
+      <formula1>"男,女"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="床位编号仅能输入数字" sqref="D1:D1048576">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"男,女"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="状态仅能输入“已入住”，“已分配”或“空床”" sqref="F1:F1048576">
       <formula1>"已入住,已分配,空床"</formula1>
     </dataValidation>
   </dataValidations>

--- a/DormManagement/Server/download/BedTemplate.xlsx
+++ b/DormManagement/Server/download/BedTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -452,10 +452,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="textLength" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="学号应为十位数字" sqref="G1:G1048576">
-      <formula1>10</formula1>
-    </dataValidation>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="楼号仅能输入5或13或14" sqref="B1:B1048576">
       <formula1>"5,13,14"</formula1>
     </dataValidation>

--- a/DormManagement/Server/download/BedTemplate.xlsx
+++ b/DormManagement/Server/download/BedTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="462" windowWidth="25602" windowHeight="14238" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14235" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -408,20 +408,20 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.90234375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.94921875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.94921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.37890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.09375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.76171875" style="2"/>
+    <col min="1" max="1" width="6.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -452,10 +452,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="楼号仅能输入5或13或14" sqref="B1:B1048576">
-      <formula1>"5,13,14"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="性别仅能输入“男”或“女”" sqref="E1:E1048576">
       <formula1>"男,女"</formula1>
     </dataValidation>
